--- a/arquivos/xlsx/testeee.xlsx
+++ b/arquivos/xlsx/testeee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,237 +476,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qual a formula da agua?</t>
+          <t>Quem descobriu o Brasil?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Qual é a diferença básica entre a fórmula da água e a fórmula da água oxigenada?</t>
+          <t xml:space="preserve">
+Quem descobriu o Brasil​
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Resposta:
-A popularmente conhecida água oxigenada nada mais é do que peróxido de hidrogênio (H2O2). Este composto químico é extremamente poderoso e tem diversos usos. Trataremos aqui fundamentalmente dos usos da água oxigenada de 10 volumes, tais como clareamento, limpeza e etc., veremos também o que é e como funciona.
+ No dia 22 de abril comemoramos o descobrimento do Brasil. Na mesma data, só que no ano de 1.500, Pedro Álvares Cabral chegava às terras de "Vera Cruz", que mais tarde seriam chamadas de Brasil. Ele chegou próximo à região de Porto Seguro, no estado da Bahia.
 Explicação:</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Resposta:
-É conhecida água oxigenada nada mais é do que peróxido de hidrogênio (H2O2). Este composto químico é extremamente poderoso e tem diversos usos. Trataremos aqui fundamentalmente dos usos da água oxigenada de 10 volumes, tais como clareamento, limpeza e etc., veremos também o que é e como funciona.
-Espero muito ter ajudado</t>
+Pedro Álvares Cabral
+Explicação:</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A fórmula da água no estado sólido é diferente da fórmula da água no estado líquido??</t>
+          <t xml:space="preserve">
+Quem descobriu o Brasil? ​
+</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Resposta:
-A fórmula se refere à composição da substância, em quaisquer dos estados físicos,portanto, a fórmula da água no estado sólido continua a ser H2O.</t>
+depende do ponto de vista mais ok vamos lá
+Pedro Álvares Cabral , a chegar aqui encontraram os indígenas , ele e sua caravana acreditavam que estavam na índia  por isso receberam o nome de índios , a explorarem mais o território encontraram o Pau -brasil (árvore que hoje em dia é bem rara de achar ) e começaram a levar para Portugual , para fazer tintas, tecidos etc... E então a longo do tempo o brasil se tornou colônia de Portugual mais tarde no dia 7 de setembro de  1815 , e 7 anos depois em 1822  , Dom Pedro I proclamou a  Independência do Brasil espero ter  ajudado boa sorte</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[]Resposta:
-não.
-Explicação: 2
-continua sendo h o da mesma forma.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>segunda guerra mundial</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Resumo sobre a segunda guerra mundial ?
-O que deu inicio a segunda guerra mundial?
-Quando começou e quando terminou a segunda guerra mundial?</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>OIEEE
-bom um breve resumo sobre a segunda guerra, tudo começou com o acordo de não agressão entre a Alemanha e a Urss (RUS), aonde decidiam quando e como invadiriam a Polonia (Porquê a polônia? pois era aonde tinha os "maiores" campos de concentração de judeus).Porém o marco do início da segunda guerra foi a rapida e ofensiva vitória nazista, aonde o Hittler (ALE) testou o seu "experimento" que era a guerra-relâmpago, aonde usava aviões e tanques e fazendo com que o inimigo nao conseguisse se defender. A guerra começou em 1939 e terminou em 1945
-ESPERO TER TE AJUDADO SE SIM DEIXA OU UM MELHOR RESPOSTA OU UMA BOA AVALIAÇÃO IRÁ ME AJUDAR MTO VLW</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Não houve segunda resposta da 1° pergunta similar</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Questionário sobre segunda guerra mundial
-1-causas da segunda Guerra Mundial
-2-Fator que deu início á segunda Guerra Mundial
-3-Fases da segunda Guerra Mundial
-4-Conflitos da segunda Guerra Mundial
-5-Principais acontecimentos da segunda Guerra Mundial
-6-Antissemitismo
-7-Campos de concentração
-8-Holocausto
-9-Bombardeio nuclear
-10-Participação do Brasil na segunda Guerra Mundial
-11-O fim da segunda Guerra Mundial
-12-Consequências da segunda Guerra Mundial
-Comente cada um dos 12 exercícios de forma discursiva!</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Resposta:
-É impossivel responder essas questão  em forma discursiva nesse tema, se posicionar a resposta sobre isso,primeiro é pessoal,é algo tão antigo que é quase impossivel responder a respeito sobre isso. mas eu vou colocar as resposta de cada uma ai vc tenta desenvolver em forma que vc achar ( eu aconselho você a ler um livro sobre segunda guerra mundial ou ir no wikipédia. pra vc tenta tira sua propria opinião ) ou tenta escrever cada coisa ai em forma informal ou então faz o resume das resposta acho que tambem serve.
-Explicação:
-1-teve como grande causa o expansionismo e o militarismo da Alemanha Nazista.
-2-O estopim que deu início à Segunda Guerra Mundial foi a invasão da Polônia pelo exército da Alemanha.
-3- a fase da supremacia alemã, a fase em que as forças estavam equilibradas e a fase que marcou a derrota do Eixo.
-4-França e Inglaterra se posicionaram contra o governo da Alemanha e declararam guerra ao país. O conflito dividiu o mundo em dois grupos: O Eixo composto pelos países da Alemanha, Itália e Japão e os Aliados eram a Inglaterra, União Soviética (URSS), França e Estados Unidos.
-5-1940: França e Alemanha acertam cessar-fogo na 2ª Guerra.
-1945: Capitulação da Alemanha na 2ª Guerra.
-1943: Goebbels declara guerra total.
-1941: Aliança entre Londres e Moscou contra Alemanha nazista.
-1942: Anne Frank inicia seu diário.
-1945: Mulheres começam a reconstruir Berlim após a guerra.
-6- de forma genérica, as manifestações de hostilidade contra judeus desde os tempos greco-romanos até os dias de hoje.
-7-Campo de concentração é um centro de confinamento militar, instalado em área de terreno livre e cercada por telas de arame farpado ou algum outro tipo de barreira, cujo perímetro é permanentemente vigiado, para suster prisioneiros de guerra e/ou prisioneiros políticos.
-8-o extermínio em massa de cerca de seis milhões de judeus pelos nazistas na Segunda Guerra Mundial.
-9-Os bombardeamentos atômicos das cidades de Hiroshima e Nagasaki foram dois bombardeios realizados pelos Estados Unidos contra o Império do Japão durante os estágios finais da Segunda Guerra Mundial, em agosto de 1945
-10-O Brasil passou a participar do conflito a partir de 1942. ... A princípio, a posição brasileira foi de neutralidade. Depois de alguns ataques a navios brasileiros, Getúlio Vargas decidiu entrar em acordo com o presidente americano Roosevelt para a participação do país na Guerra.
-11-Há duas datas que marcam o fim da Segunda Guerra Mundial: 8 de maio de 1945, na Europa, pela queda da Alemanha Nazista; e 2 de setembro do mesmo ano, na Ásia, com a rendição do Japão após as bombas atômicas.
-12-A Segunda Guerra Mundial, ocorrida entre 1939 e 1945, deixou milhares de mortos, incontáveis feridos e redefiniu o equilíbrio de poder mundial. As principais consequências deste conflito foram a ascensão dos Estados Unidos, a divisão do mundo entre capitalismo e socialismo e o surgimento da ONU.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Resposta:
--teve como grande causa o expansionismo e o militarismo da Alemanha Nazista.
-2-O estopim que deu início à Segunda Guerra Mundial foi a invasão da Polônia pelo exército da Alemanha.
-3- a fase da supremacia alemã, a fase em que as forças estavam equilibradas e a fase que marcou a derrota do Eixo.
-4-França e Inglaterra se posicionaram contra o governo da Alemanha e declararam guerra ao país. O conflito dividiu o mundo em dois grupos: O Eixo composto pelos países da Alemanha, Itália e Japão e os Aliados eram a Inglaterra, União Soviética (URSS), França e Estados Unidos.
-5-1940: França e Alemanha acertam cessar-fogo na 2ª Guerra.
-1945: Capitulação da Alemanha na 2ª Guerra.
-1943: Goebbels declara guerra total.
-1941: Aliança entre Londres e Moscou contra Alemanha nazista.
-1942: Anne Frank inicia seu diário.
-1945: Mulheres começam a reconstruir Berlim após a guerra.
-Explicação:</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>o que foi a revolução francesa?</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>As Revoluções da modernidade são? 
-A) Revolução Francesa e Industrial.
-B) Revolução Francesa e mecânica.
-C) Revolução Francesa e social.
-D) Revolução Francesa e Imperial.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Resposta:
-a) Revolução Francesa e industrial</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Resposta : A)Revolução Francesa e Industrial.  
-A Revolução Industrial foi considerada pelos historiadores como um período de grande avanço tecnológico, que ocorreu na segunda metade do século XVIII e que permitiu o desenvolvimento da indústria moderna.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A Revolução Francesa acabou com o antigo Regime”. Mediante a essa afirmação, O que foi a Revolução Francesa? Quais suas características? Qual o objetivo da Revolução Francesa? Onde ocorreu a Revolução Francesa?</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>A Revolução Francesa marca o momento de transição da Idade Moderna para a Idade Contemporânea. Como o próprio nome já diz, a Revolução ocorreu na França, que acabou sendo o primeiro país a acabar com o Antigo Regime e dando o poder ao 3º estado. Essa revolução acabou inspirando outros países na Europa a acabar com o absolutismo e o mercantilismo, por exemplo.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Resposta:
-A Revolução Francesa marca o momento de transição da Idade Moderna para a Idade Contemporânea. Como o próprio nome já diz, a Revolução ocorreu na França, que acabou sendo o primeiro país a acabar com o Antigo Regime e dando o poder ao 3º estado. Essa revolução acabou inspirando outros países na Europa a acabar com o absolutismo e o mercantilismo, por exemplo
-Explicação:</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>O que foi a guerra fria?</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sobre a guerra fria responda:
-1) O que foi a guerra fria?
-2) Quem eram os países rivais na guerra fria?
-3) Quando teve início a guerra fria?
-4) Quando terminou a guerra fria?</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Guerra Fria - O que estava em jogo no conflito entre EUA e URSS. Durante a Segunda Guerra Mundial, os Estados Unidos e a União Soviética foram aliados na luta contra a Alemanha nazista.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1) Foi um período de tensão geopolítica entre a União Soviética e os Estados Unidos e seus respectivos aliados, o Bloco Oriental e o Bloco Ocidental, após a Segunda Guerra Mundial.
-2) Os dois grandes rivais na Guerra Fria eram a União Soviética e os Estados Unidos.
-3)1947
-4)1991</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Guerra Fria: Causa, Características e consequências.
-Qual foi a causa da Guerra fria?
-Quais são as características da Guerra Fria?
-Quais foram as consequências da Guerra Fria ?</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>As causas foram que A União Soviética buscava implantar o socialismo em outros países para que pudessem expandir a igualdade social, baseado na economia planificada, partido único (Partido Comunista), igualdade social e falta de democracia. Enquanto os Estados Unidos, a outra potência mundial, defendia a expansão do sistema capitalista, baseado na economia de mercado, sistema democrático e propriedade privada.
-Quando a Segunda Guerra Mundial chegou ao fim, os Estados Unidos assumiam o posto de ser o país mais rico do mundo, porém, toda essa influência econômica foi disputada  com aquele que  era o segundo país com maior poder econômico do planeta, a URSS. Ambos possuíam formas de governo diferentes, e um não concordava com os métodos utilizados pelo outro. Enquanto os Estados Unidos sobreviviam de uma forma Capitalista, e defendia que o mundo deveria viver da mesma forma, se baseando na economia de mercado e na expansão de um sistema democrático, capitalista e de propriedade privada, a URSS era uma nação socialista, que se baseava em uma economia planificada, governada pelo Partido Comunista e sem democracia, características essas que muitas vezes desagradavam o próprio povo que vivia sobre essa forma de governo. Ambos discordavam da forma como o mundo deveria se reerguer depois da destruição causada pela segunda guerra.
-O fim da Guerra Fria e suas consequências
-No final da década de 1980 a falta de democracia e a crise existente nas repúblicas soviéticas traziam como principal consequência o fim do socialismo. A queda do muro de Berlim em 9 de novembro de 1989 e a unificação da Alemanha marcavam o fim da Guerra Fria. O capitalismo saia vitorioso e aos poucos ia sendo implantado nos países socialistas.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mais ou menos em 1950, após a derrota da Alemanha na segunda guerra mundial, o mundo estava dividido entre duas potências: União Soviética e Estados Unidos.
-Depois de tantas batalhas, a população estava aliviada com o fim da guerra. Porém, a rivalidade ainda não havia sido completamente desfeita!
-Graças ao armamento obsessivo de ambos os países, os governos estavam evitando ao máximo um confronto direto, porque se houvesse mais uma batalha sangrenta com tiros e bombas nucleares, provavelmente as duas potências teriam prejuízos enormes. Por isso, os combates eram somente ideológicos, com o objetivo de provar para o mundo qual era a potência mais poderosa.
-Desse jeito, a guerra começou com foco nas expedições aeroespaciais e na ciência. Essa foi a chamada Guerra Fria.
-Estados Unidos e União Soviética estavam em uma corrida contra o tempo para provar ao mundo quem conseguiria levar o homem a lua primeiro, e assim, os jornais ficaram lotados de manchetes sobre novas descobertas científicas e narrativas sobre a evolução das armas e das expedições.</t>
+          <t>Não houve segunda resposta</t>
         </is>
       </c>
     </row>

--- a/arquivos/xlsx/testeee.xlsx
+++ b/arquivos/xlsx/testeee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,22 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sdjkhaskdhsajdhsajkdsa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
